--- a/project/checkers.xlsx
+++ b/project/checkers.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="2">
   <si>
     <t>B</t>
   </si>
@@ -33,7 +33,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +69,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="11"/>
       <color theme="0"/>
@@ -114,7 +122,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -129,6 +137,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -434,7 +445,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" zoomScalePageLayoutView="205" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -447,21 +458,23 @@
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="H1" s="4"/>
       <c r="I1" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
+      <c r="G2" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="1">
         <v>1</v>
@@ -469,11 +482,13 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
       <c r="I3" s="1">
@@ -483,15 +498,13 @@
     <row r="4" spans="1:9">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="3"/>
       <c r="I4" s="1">
         <v>3</v>
@@ -511,9 +524,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="3"/>
@@ -529,7 +540,9 @@
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>

--- a/project/checkers.xlsx
+++ b/project/checkers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20520" yWindow="0" windowWidth="8280" windowHeight="15820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8560" windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" zoomScalePageLayoutView="205" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -454,7 +454,9 @@
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
       <c r="G1" s="3"/>
@@ -464,17 +466,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="4"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="G2" s="6"/>
       <c r="H2" s="3"/>
       <c r="I2" s="1">
         <v>1</v>
@@ -483,12 +481,14 @@
     <row r="3" spans="1:9">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="5"/>
+      <c r="F3" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
       <c r="I3" s="1">
@@ -501,7 +501,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
@@ -540,9 +540,7 @@
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
@@ -556,7 +554,9 @@
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
       <c r="H8" s="3"/>
